--- a/Calculos/MoS.xlsx
+++ b/Calculos/MoS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECCCEEB-D0A0-4B34-AF64-6A2EB5F778DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F392439-2FFC-49C6-9D8B-DE4E6080366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -148,13 +148,22 @@
   </si>
   <si>
     <t>τy (Pa)</t>
+  </si>
+  <si>
+    <t>τu (Pa)</t>
+  </si>
+  <si>
+    <t>MoS_comb_y</t>
+  </si>
+  <si>
+    <t>MoS_comb_u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +185,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,23 +220,325 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -570,16 +895,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA28"/>
+  <dimension ref="B1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22:Y23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
@@ -596,14 +922,14 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -617,21 +943,21 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -655,7 +981,7 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K5" t="s">
@@ -679,10 +1005,10 @@
       <c r="T5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W5" t="s">
@@ -702,7 +1028,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>182000000</v>
       </c>
       <c r="E6">
@@ -720,21 +1046,21 @@
       <c r="I6">
         <v>1.25</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>434000000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>510000000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
         <v>0.49299736076595546</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
         <v>0.54391063481972535</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>3.6600000000000002E-5</v>
       </c>
       <c r="R6">
@@ -746,36 +1072,36 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>950000000</v>
       </c>
       <c r="V6">
         <v>1.4</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>1100000000</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="7">
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
         <v>0.58246139422267351</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
         <v>0.8323237196262534</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -783,10 +1109,10 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -810,7 +1136,7 @@
       <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" t="s">
@@ -842,7 +1168,7 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>180000000</v>
       </c>
       <c r="E13">
@@ -860,17 +1186,17 @@
       <c r="I13">
         <v>1.25</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>434000000</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>510000000</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
         <v>0.50958622033002166</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
         <v>0.56106519742883343</v>
       </c>
@@ -883,21 +1209,21 @@
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="7">
         <v>0</v>
       </c>
-      <c r="U13" s="6" t="e">
+      <c r="U13" s="4" t="e">
         <f>(Q13/((1-R13)*T13*S13))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -921,7 +1247,7 @@
       <c r="I16" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K16" t="s">
@@ -933,16 +1259,16 @@
       <c r="M16" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>182000000</v>
       </c>
       <c r="E17">
@@ -960,17 +1286,17 @@
       <c r="I17">
         <v>1.25</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>434000000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>510000000</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
         <v>0.49299736076595546</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
         <v>0.54391063481972535</v>
       </c>
@@ -983,7 +1309,7 @@
       <c r="T17" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V17" t="s">
@@ -996,13 +1322,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="Q18" s="3"/>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="Q18" s="2"/>
       <c r="R18">
         <v>13241.4</v>
       </c>
@@ -1015,32 +1341,32 @@
       <c r="U18">
         <v>1.4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="7">
         <v>0</v>
       </c>
-      <c r="X18" s="6" t="e">
+      <c r="X18" s="4" t="e">
         <f>(((R18-(1-S18)*W18)*T18)/(U18*V18))-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="Q21" s="1" t="s">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J22" s="2"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
       <c r="Q22" t="s">
         <v>17</v>
       </c>
@@ -1053,34 +1379,40 @@
       <c r="T22" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="X22" t="s">
         <v>9</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" t="s">
-        <v>29</v>
-      </c>
       <c r="AA22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="Q23" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="Q23" s="2">
         <v>3.6600000000000002E-5</v>
       </c>
       <c r="R23">
@@ -1092,89 +1424,111 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="2">
         <v>950000000</v>
       </c>
-      <c r="V23" s="3"/>
+      <c r="V23" s="2">
+        <v>548000000</v>
+      </c>
       <c r="W23">
         <v>1.4</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="2">
         <v>1100000000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z23" s="7">
         <v>0</v>
       </c>
-      <c r="Z23" s="3">
-        <f>((Q23*U23)/(R23+S23*Y23*T23))-1</f>
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <f>(1/(SQRT(((AA23*T23)/(V23*Q23))^2 + ( (R23+S23*Z23*T23)/(Q23*U23))^2)))-1</f>
         <v>0.58246139422267351</v>
       </c>
-      <c r="AA23" s="3">
-        <f>((Q23*X23)/(R23+S23*Y23*W23))-1</f>
+      <c r="AC23" s="2">
+        <f>(1/(SQRT(((AA23*W23)/(V23*Q23))^2 + ( (R23+S23*Z23*W23)/(Q23*X23))^2)))-1</f>
         <v>0.8323237196262534</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="Q1:V2"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z6">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z6 U13 X18 AB23:AC23">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Calculos/MoS.xlsx
+++ b/Calculos/MoS.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F392439-2FFC-49C6-9D8B-DE4E6080366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDDF30-8358-48BD-880F-CF304DB62048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MoS Estatico" sheetId="1" r:id="rId1"/>
+    <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
+    <sheet name="MoS Estatico Y" sheetId="2" r:id="rId2"/>
+    <sheet name="MoS Estatico Z" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="44">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -82,9 +84,6 @@
   </si>
   <si>
     <t>Minimum Combined Stress</t>
-  </si>
-  <si>
-    <t>ANALISIS ESTATICO</t>
   </si>
   <si>
     <t>As</t>
@@ -158,6 +157,18 @@
   <si>
     <t>MoS_comb_u</t>
   </si>
+  <si>
+    <t>ANALISIS ESTATICO X</t>
+  </si>
+  <si>
+    <t>ANALISIS ESTATICO Y</t>
+  </si>
+  <si>
+    <t>Tornillo</t>
+  </si>
+  <si>
+    <t>ANALISIS ESTATICO Z</t>
+  </si>
 </sst>
 </file>
 
@@ -226,19 +237,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -276,6 +287,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -461,6 +482,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -536,6 +577,166 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC28"/>
+  <dimension ref="B1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,55 +1110,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="Q1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -993,35 +1194,38 @@
       <c r="M5" t="s">
         <v>11</v>
       </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>19</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s">
         <v>9</v>
       </c>
       <c r="X5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
         <v>29</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -1060,6 +1264,9 @@
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
         <v>0.54391063481972535</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
       <c r="Q6" s="2">
         <v>3.6600000000000002E-5</v>
       </c>
@@ -1081,7 +1288,7 @@
       <c r="W6" s="2">
         <v>1100000000</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="5">
         <v>0</v>
       </c>
       <c r="Y6" s="2">
@@ -1099,20 +1306,195 @@
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7">
+        <v>21972.1</v>
+      </c>
+      <c r="S7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8">
+        <v>21972.1</v>
+      </c>
+      <c r="S8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V8">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10">
+        <v>21972.1</v>
+      </c>
+      <c r="S10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V10">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="6"/>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11">
+        <v>21972.1</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -1148,20 +1530,40 @@
       <c r="M12" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" t="s">
-        <v>28</v>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12">
+        <v>21972.1</v>
+      </c>
+      <c r="S12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V12">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -1200,23 +1602,41 @@
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
         <v>0.56106519742883343</v>
       </c>
-      <c r="Q13">
-        <v>13241.4</v>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.6600000000000002E-5</v>
       </c>
       <c r="R13">
-        <v>3.7999999999999999E-2</v>
+        <v>21972.1</v>
       </c>
       <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="e">
-        <f>(Q13/((1-R13)*T13*S13))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="2"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
@@ -1224,6 +1644,78 @@
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>21972.1</v>
+      </c>
+      <c r="S14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>21972.1</v>
+      </c>
+      <c r="S15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -1259,10 +1751,41 @@
       <c r="M16" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="6"/>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16">
+        <v>21972.1</v>
+      </c>
+      <c r="S16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V16">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -1300,26 +1823,40 @@
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
         <v>0.54391063481972535</v>
       </c>
-      <c r="R17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" t="s">
-        <v>35</v>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17">
+        <v>21972.1</v>
+      </c>
+      <c r="S17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
       </c>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.25">
@@ -1328,29 +1865,6 @@
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="Q18" s="2"/>
-      <c r="R18">
-        <v>13241.4</v>
-      </c>
-      <c r="S18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="T18">
-        <v>0.2</v>
-      </c>
-      <c r="U18">
-        <v>1.4</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="e">
-        <f>(((R18-(1-S18)*W18)*T18)/(U18*V18))-1</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
@@ -1359,52 +1873,52 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="Q21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="6"/>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
-      <c r="Q22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" t="s">
-        <v>18</v>
-      </c>
-      <c r="T22" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>40</v>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>13241.4</v>
+      </c>
+      <c r="R22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="e">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.25">
@@ -1412,46 +1926,24 @@
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="Q23" s="2">
-        <v>3.6600000000000002E-5</v>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>13241.4</v>
       </c>
       <c r="R23">
-        <v>21972.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="S23">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
-        <v>950000000</v>
-      </c>
-      <c r="V23" s="2">
-        <v>548000000</v>
-      </c>
-      <c r="W23">
-        <v>1.4</v>
-      </c>
-      <c r="X23" s="2">
-        <v>1100000000</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>655000000</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="2">
-        <f>(1/(SQRT(((AA23*T23)/(V23*Q23))^2 + ( (R23+S23*Z23*T23)/(Q23*U23))^2)))-1</f>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="AC23" s="2">
-        <f>(1/(SQRT(((AA23*W23)/(V23*Q23))^2 + ( (R23+S23*Z23*W23)/(Q23*X23))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.25">
@@ -1460,16 +1952,94 @@
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="AC24" s="8"/>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>13241.4</v>
+      </c>
+      <c r="R24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>13241.4</v>
+      </c>
+      <c r="R25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>13241.4</v>
+      </c>
+      <c r="R26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13241.4</v>
+      </c>
+      <c r="R27">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
@@ -1477,62 +2047,5407 @@
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>13241.4</v>
+      </c>
+      <c r="R28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>13241.4</v>
+      </c>
+      <c r="R29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>13241.4</v>
+      </c>
+      <c r="R30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>13241.4</v>
+      </c>
+      <c r="R31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>13241.4</v>
+      </c>
+      <c r="R32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13241.4</v>
+      </c>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>13241.4</v>
+      </c>
+      <c r="R38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.2</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4" t="e">
+        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>13241.4</v>
+      </c>
+      <c r="R39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4" t="e">
+        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>13241.4</v>
+      </c>
+      <c r="R40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.2</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>13241.4</v>
+      </c>
+      <c r="R41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>13241.4</v>
+      </c>
+      <c r="R42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>13241.4</v>
+      </c>
+      <c r="R43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>13241.4</v>
+      </c>
+      <c r="R44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.2</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13241.4</v>
+      </c>
+      <c r="R45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.2</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>13241.4</v>
+      </c>
+      <c r="R46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>13241.4</v>
+      </c>
+      <c r="R47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.2</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>13241.4</v>
+      </c>
+      <c r="R48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13241.4</v>
+      </c>
+      <c r="R49">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>13241.4</v>
+      </c>
+      <c r="R50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S50">
+        <v>0.2</v>
+      </c>
+      <c r="T50">
+        <v>1.4</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54">
+        <v>21972.1</v>
+      </c>
+      <c r="S54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="55" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55">
+        <v>21972.1</v>
+      </c>
+      <c r="S55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="56" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56">
+        <v>21972.1</v>
+      </c>
+      <c r="S56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="57" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57">
+        <v>21972.1</v>
+      </c>
+      <c r="S57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="58" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58">
+        <v>21972.1</v>
+      </c>
+      <c r="S58">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="59" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59">
+        <v>21972.1</v>
+      </c>
+      <c r="S59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="60" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60">
+        <v>21972.1</v>
+      </c>
+      <c r="S60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="61" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61">
+        <v>21972.1</v>
+      </c>
+      <c r="S61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="62" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62">
+        <v>21972.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="63" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63">
+        <v>21972.1</v>
+      </c>
+      <c r="S63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="64" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64">
+        <v>21972.1</v>
+      </c>
+      <c r="S64">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="65" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65">
+        <v>21972.1</v>
+      </c>
+      <c r="S65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q52:R52"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="Q1:V2"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z6">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z6 U13 X18 AB23:AC23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C2AAF-AA2E-43AA-8D17-51A2E4C44F0A}">
+  <dimension ref="B1:AC65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>182000000</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(J6/PRODUCT(D6:H6))-1</f>
+        <v>0.49299736076595546</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(K6/(E6*F6*G6*I6*D6))-1</f>
+        <v>0.54391063481972535</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R6">
+        <v>21972.1</v>
+      </c>
+      <c r="S6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7">
+        <v>21972.1</v>
+      </c>
+      <c r="S7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8">
+        <v>21972.1</v>
+      </c>
+      <c r="S8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V8">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10">
+        <v>21972.1</v>
+      </c>
+      <c r="S10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V10">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11">
+        <v>21972.1</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12">
+        <v>21972.1</v>
+      </c>
+      <c r="S12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V12">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180000000</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(J13/PRODUCT(D13:H13))-1</f>
+        <v>0.50958622033002166</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(K13/(D13*E13*F13*G13*I13))-1</f>
+        <v>0.56106519742883343</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R13">
+        <v>21972.1</v>
+      </c>
+      <c r="S13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>21972.1</v>
+      </c>
+      <c r="S14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>21972.1</v>
+      </c>
+      <c r="S15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16">
+        <v>21972.1</v>
+      </c>
+      <c r="S16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V16">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>182000000</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(J17/PRODUCT(D17:H17))-1</f>
+        <v>0.49299736076595546</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
+        <v>0.54391063481972535</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17">
+        <v>21972.1</v>
+      </c>
+      <c r="S17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>13241.4</v>
+      </c>
+      <c r="R22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="e">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>13241.4</v>
+      </c>
+      <c r="R23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>13241.4</v>
+      </c>
+      <c r="R24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>13241.4</v>
+      </c>
+      <c r="R25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>13241.4</v>
+      </c>
+      <c r="R26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13241.4</v>
+      </c>
+      <c r="R27">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>13241.4</v>
+      </c>
+      <c r="R28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>13241.4</v>
+      </c>
+      <c r="R29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>13241.4</v>
+      </c>
+      <c r="R30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>13241.4</v>
+      </c>
+      <c r="R31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>13241.4</v>
+      </c>
+      <c r="R32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13241.4</v>
+      </c>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>13241.4</v>
+      </c>
+      <c r="R38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.2</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4" t="e">
+        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>13241.4</v>
+      </c>
+      <c r="R39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4" t="e">
+        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>13241.4</v>
+      </c>
+      <c r="R40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.2</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>13241.4</v>
+      </c>
+      <c r="R41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>13241.4</v>
+      </c>
+      <c r="R42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>13241.4</v>
+      </c>
+      <c r="R43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>13241.4</v>
+      </c>
+      <c r="R44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.2</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13241.4</v>
+      </c>
+      <c r="R45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.2</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>13241.4</v>
+      </c>
+      <c r="R46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>13241.4</v>
+      </c>
+      <c r="R47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.2</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>13241.4</v>
+      </c>
+      <c r="R48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13241.4</v>
+      </c>
+      <c r="R49">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>13241.4</v>
+      </c>
+      <c r="R50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S50">
+        <v>0.2</v>
+      </c>
+      <c r="T50">
+        <v>1.4</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54">
+        <v>21972.1</v>
+      </c>
+      <c r="S54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="55" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55">
+        <v>21972.1</v>
+      </c>
+      <c r="S55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="56" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56">
+        <v>21972.1</v>
+      </c>
+      <c r="S56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="57" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57">
+        <v>21972.1</v>
+      </c>
+      <c r="S57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="58" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58">
+        <v>21972.1</v>
+      </c>
+      <c r="S58">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="59" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59">
+        <v>21972.1</v>
+      </c>
+      <c r="S59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="60" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60">
+        <v>21972.1</v>
+      </c>
+      <c r="S60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="61" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61">
+        <v>21972.1</v>
+      </c>
+      <c r="S61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="62" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62">
+        <v>21972.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="63" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63">
+        <v>21972.1</v>
+      </c>
+      <c r="S63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="64" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64">
+        <v>21972.1</v>
+      </c>
+      <c r="S64">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="65" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65">
+        <v>21972.1</v>
+      </c>
+      <c r="S65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q20:R20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L6:M7 L13:M14">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:M24">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:M28">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E329C4-7E96-4707-A44A-B8116FA21670}">
+  <dimension ref="B1:AC65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>182000000</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(J6/PRODUCT(D6:H6))-1</f>
+        <v>0.49299736076595546</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(K6/(E6*F6*G6*I6*D6))-1</f>
+        <v>0.54391063481972535</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R6">
+        <v>21972.1</v>
+      </c>
+      <c r="S6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V6">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7">
+        <v>21972.1</v>
+      </c>
+      <c r="S7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8">
+        <v>21972.1</v>
+      </c>
+      <c r="S8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V8">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10">
+        <v>21972.1</v>
+      </c>
+      <c r="S10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V10">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11">
+        <v>21972.1</v>
+      </c>
+      <c r="S11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12">
+        <v>21972.1</v>
+      </c>
+      <c r="S12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V12">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180000000</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(J13/PRODUCT(D13:H13))-1</f>
+        <v>0.50958622033002166</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(K13/(D13*E13*F13*G13*I13))-1</f>
+        <v>0.56106519742883343</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R13">
+        <v>21972.1</v>
+      </c>
+      <c r="S13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V13">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>21972.1</v>
+      </c>
+      <c r="S14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>21972.1</v>
+      </c>
+      <c r="S15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16">
+        <v>21972.1</v>
+      </c>
+      <c r="S16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V16">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>182000000</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(J17/PRODUCT(D17:H17))-1</f>
+        <v>0.49299736076595546</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
+        <v>0.54391063481972535</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17">
+        <v>21972.1</v>
+      </c>
+      <c r="S17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V17">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>13241.4</v>
+      </c>
+      <c r="R22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="e">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>13241.4</v>
+      </c>
+      <c r="R23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>13241.4</v>
+      </c>
+      <c r="R24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>13241.4</v>
+      </c>
+      <c r="R25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>13241.4</v>
+      </c>
+      <c r="R26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>13241.4</v>
+      </c>
+      <c r="R27">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>13241.4</v>
+      </c>
+      <c r="R28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>13241.4</v>
+      </c>
+      <c r="R29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>13241.4</v>
+      </c>
+      <c r="R30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>13241.4</v>
+      </c>
+      <c r="R31">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>13241.4</v>
+      </c>
+      <c r="R32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>13241.4</v>
+      </c>
+      <c r="R33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>13241.4</v>
+      </c>
+      <c r="R38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.2</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4" t="e">
+        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>13241.4</v>
+      </c>
+      <c r="R39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="4" t="e">
+        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>13241.4</v>
+      </c>
+      <c r="R40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.2</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>13241.4</v>
+      </c>
+      <c r="R41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.2</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>13241.4</v>
+      </c>
+      <c r="R42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>13241.4</v>
+      </c>
+      <c r="R43">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.2</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>13241.4</v>
+      </c>
+      <c r="R44">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.2</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>13241.4</v>
+      </c>
+      <c r="R45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.2</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>13241.4</v>
+      </c>
+      <c r="R46">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.2</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>13241.4</v>
+      </c>
+      <c r="R47">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.2</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>13241.4</v>
+      </c>
+      <c r="R48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.2</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13241.4</v>
+      </c>
+      <c r="R49">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>13241.4</v>
+      </c>
+      <c r="R50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S50">
+        <v>0.2</v>
+      </c>
+      <c r="T50">
+        <v>1.4</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="Q52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54">
+        <v>21972.1</v>
+      </c>
+      <c r="S54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W54">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="55" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55">
+        <v>21972.1</v>
+      </c>
+      <c r="S55">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC55" s="2">
+        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="56" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56">
+        <v>21972.1</v>
+      </c>
+      <c r="S56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="57" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57">
+        <v>21972.1</v>
+      </c>
+      <c r="S57">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="58" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58">
+        <v>21972.1</v>
+      </c>
+      <c r="S58">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="59" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59">
+        <v>21972.1</v>
+      </c>
+      <c r="S59">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC59" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="60" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60">
+        <v>21972.1</v>
+      </c>
+      <c r="S60">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="61" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61">
+        <v>21972.1</v>
+      </c>
+      <c r="S61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="62" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62">
+        <v>21972.1</v>
+      </c>
+      <c r="S62">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="63" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63">
+        <v>21972.1</v>
+      </c>
+      <c r="S63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="64" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64">
+        <v>21972.1</v>
+      </c>
+      <c r="S64">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+    <row r="65" spans="16:29" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65">
+        <v>21972.1</v>
+      </c>
+      <c r="S65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="2">
+        <v>548000000</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58246139422267351</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8323237196262534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q20:R20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L6:M7 L13:M14">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:M24">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:M28">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calculos/MoS.xlsx
+++ b/Calculos/MoS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDDF30-8358-48BD-880F-CF304DB62048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C6A70-34EB-4850-9E5F-1F45C14B3FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="51">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -169,6 +169,27 @@
   <si>
     <t>ANALISIS ESTATICO Z</t>
   </si>
+  <si>
+    <t>INPUT F06</t>
+  </si>
+  <si>
+    <t>F_X</t>
+  </si>
+  <si>
+    <t>F_Y</t>
+  </si>
+  <si>
+    <t>F_Z</t>
+  </si>
+  <si>
+    <t>M_X</t>
+  </si>
+  <si>
+    <t>M_Y</t>
+  </si>
+  <si>
+    <t>M_Z</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -387,246 +408,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1096,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC65"/>
+  <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +890,7 @@
     <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
@@ -1131,8 +912,18 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1150,8 +941,16 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +959,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1227,8 +1026,26 @@
       <c r="Z5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1289,18 +1106,40 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <v>0</v>
+        <f>AE6</f>
+        <v>138567600</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58246139422267351</v>
+        <v>-0.99342416434074299</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+        <v>-0.99455487408949717</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>138567600</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>-44957640</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>-220097800</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>358.07170000000002</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>4923298</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>4287095</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1331,18 +1170,40 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
-        <v>0</v>
+        <f t="shared" ref="X7:X17" si="0">AE7</f>
+        <v>685234100</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58246139422267351</v>
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>-0.99866581573056512</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>-0.99889627345186782</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>685234100</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>-81432890</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>-12289480</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>145.32169999999999</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>18725370</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>-154890.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P8">
         <v>3</v>
       </c>
@@ -1368,18 +1229,40 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>685222900</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-0.99866579394164767</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.99889625542227345</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>685222900</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>81433450</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>-12288560</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>-146.93029999999999</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>18725210</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>155011.20000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1408,18 +1291,40 @@
         <v>1100000000</v>
       </c>
       <c r="X9" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>138570800</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-0.99342431556476984</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.99455499945951675</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>138570800</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>44960150</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>-220095800</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>-358.04790000000003</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>4923326</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>-4287149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P10">
         <v>5</v>
       </c>
@@ -1445,18 +1350,40 @@
         <v>1100000000</v>
       </c>
       <c r="X10" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>272923400</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-0.99665449870867207</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.99723137170434561</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>272923400</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>-60290230</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>-494113600</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1986.4739999999999</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>2898666</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>8129951</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1485,18 +1412,40 @@
         <v>1100000000</v>
       </c>
       <c r="X11" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>272926900</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-0.99665454152050248</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-0.99723140715544045</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>272926900</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>60287980</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>-494116000</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>-1985.7170000000001</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>2898716</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>-8130023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -1555,18 +1504,40 @@
         <v>1100000000</v>
       </c>
       <c r="X12" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-272918500</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.0033597673359671</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0027770703468133</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>-272918500</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>60287110</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>-494111500</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1985.76</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>2898743</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>-8129794</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -1627,18 +1598,40 @@
         <v>1100000000</v>
       </c>
       <c r="X13" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-138570400</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.0066308101997614</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0054775710079529</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>-138570400</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>44955520</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>-220096500</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>357.91050000000001</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>4923330</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>-4287100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1669,18 +1662,40 @@
         <v>1100000000</v>
       </c>
       <c r="X14" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-138567100</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.006630968775384</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0054777018472516</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>-138567100</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>-44953180</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>-220099200</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>-358.036</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>4923298</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>4287046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>10</v>
       </c>
@@ -1706,18 +1721,40 @@
         <v>1100000000</v>
       </c>
       <c r="X15" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-272915600</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.0033598031126387</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0027770999006755</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>-272915600</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>-60289190</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>-494110300</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>-1986.4110000000001</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>2898691</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>8129735</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -1776,18 +1813,40 @@
         <v>1100000000</v>
       </c>
       <c r="X16" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-685231600</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.0013364426695095</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0011050618772317</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>-685231600</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>81417780</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>-12291030</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>146.77760000000001</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>18725430</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>155128.29999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -1848,38 +1907,60 @@
         <v>1100000000</v>
       </c>
       <c r="X17" s="5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-685242500</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="1"/>
+        <v>-1.00133642139306</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-1.0011050442886573</v>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>-685242500</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>-81418860</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>-12292020</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>-145.2783</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>18725580</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>-155004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="Q20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="P22">
         <v>1</v>
@@ -1921,7 +2002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
@@ -1942,11 +2023,11 @@
         <v>0</v>
       </c>
       <c r="U23" s="4" t="e">
-        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
+        <f t="shared" ref="U23:U33" si="3">(Q23/((1-R23)*T23*S23))-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1968,12 +2049,12 @@
         <v>0</v>
       </c>
       <c r="U24" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>4</v>
       </c>
@@ -1990,11 +2071,11 @@
         <v>0</v>
       </c>
       <c r="U25" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
       <c r="P26">
         <v>5</v>
@@ -2012,11 +2093,11 @@
         <v>0</v>
       </c>
       <c r="U26" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
@@ -2037,11 +2118,11 @@
         <v>0</v>
       </c>
       <c r="U27" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2063,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>8</v>
       </c>
@@ -2084,11 +2165,11 @@
         <v>0</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>9</v>
       </c>
@@ -2105,12 +2186,12 @@
         <v>0</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>10</v>
       </c>
@@ -2127,11 +2208,11 @@
         <v>0</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>11</v>
       </c>
@@ -2148,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2169,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2255,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="4" t="e">
-        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
+        <f t="shared" ref="W39:W50" si="4">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2282,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2309,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2336,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2363,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2390,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2417,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2444,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2471,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2498,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2525,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2549,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2687,11 +2768,11 @@
         <v>0</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <f t="shared" ref="AB55:AB65" si="5">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <f t="shared" ref="AC55:AC65" si="6">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2733,11 +2814,11 @@
         <v>0</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2779,11 +2860,11 @@
         <v>0</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2825,11 +2906,11 @@
         <v>0</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2871,11 +2952,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2917,11 +2998,11 @@
         <v>0</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -2963,11 +3044,11 @@
         <v>0</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -3009,11 +3090,11 @@
         <v>0</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -3055,11 +3136,11 @@
         <v>0</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -3101,11 +3182,11 @@
         <v>0</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
@@ -3147,16 +3228,17 @@
         <v>0</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58246139422267351</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8323237196262534</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AD1:AK2"/>
     <mergeCell ref="Q52:R52"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="Q1:V2"/>
@@ -3165,47 +3247,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Calculos/MoS.xlsx
+++ b/Calculos/MoS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C6A70-34EB-4850-9E5F-1F45C14B3FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC440A21-4486-4F06-B5FE-9E8482CA1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="51">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -270,7 +270,227 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -880,7 +1100,7 @@
   <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:X17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,36 +1327,39 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>138567600</v>
+        <v>138.7587</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>-0.99342416434074299</v>
+        <v>0.58208172869453723</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>-0.99455487408949717</v>
+        <v>0.83170832088155122</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>138567600</v>
+        <v>138.7587</v>
       </c>
       <c r="AF6" s="2">
-        <v>-44957640</v>
+        <v>-47.677790000000002</v>
       </c>
       <c r="AG6" s="2">
-        <v>-220097800</v>
+        <v>-218.77119999999999</v>
       </c>
       <c r="AH6" s="2">
-        <v>358.07170000000002</v>
+        <v>3.6460069999999999E-4</v>
       </c>
       <c r="AI6" s="2">
-        <v>4923298</v>
+        <v>4.9347859999999999</v>
       </c>
       <c r="AJ6" s="2">
-        <v>4287095</v>
+        <v>4.3022919999999996</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -1171,36 +1394,39 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>685234100</v>
+        <v>684.92539999999997</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>-0.99866581573056512</v>
+        <v>0.58058909919406698</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>-0.99889627345186782</v>
+        <v>0.82929006655416249</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>2</v>
       </c>
       <c r="AE7" s="2">
-        <v>685234100</v>
+        <v>684.92539999999997</v>
       </c>
       <c r="AF7" s="2">
-        <v>-81432890</v>
+        <v>-84.546120000000002</v>
       </c>
       <c r="AG7" s="2">
-        <v>-12289480</v>
+        <v>-11.634040000000001</v>
       </c>
       <c r="AH7" s="2">
-        <v>145.32169999999999</v>
+        <v>1.6075949999999999E-4</v>
       </c>
       <c r="AI7" s="2">
-        <v>18725370</v>
+        <v>18.72015</v>
       </c>
       <c r="AJ7" s="2">
-        <v>-154890.6</v>
+        <v>-0.13990069999999999</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -1230,36 +1456,39 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>685222900</v>
+        <v>684.91399999999999</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.99866579394164767</v>
+        <v>0.58058913031995374</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99889625542227345</v>
+        <v>0.82929011696313859</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>3</v>
       </c>
       <c r="AE8" s="2">
-        <v>685222900</v>
+        <v>684.91399999999999</v>
       </c>
       <c r="AF8" s="2">
-        <v>81433450</v>
+        <v>84.546660000000003</v>
       </c>
       <c r="AG8" s="2">
-        <v>-12288560</v>
+        <v>-11.633039999999999</v>
       </c>
       <c r="AH8" s="2">
-        <v>-146.93029999999999</v>
+        <v>-1.624195E-4</v>
       </c>
       <c r="AI8" s="2">
-        <v>18725210</v>
+        <v>18.71998</v>
       </c>
       <c r="AJ8" s="2">
-        <v>155011.20000000001</v>
+        <v>0.14002220000000001</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -1292,36 +1521,39 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>138570800</v>
+        <v>138.76179999999999</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-0.99342431556476984</v>
+        <v>0.58208172021448679</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99455499945951675</v>
+        <v>0.8317083071375817</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>4</v>
       </c>
       <c r="AE9" s="2">
-        <v>138570800</v>
+        <v>138.76179999999999</v>
       </c>
       <c r="AF9" s="2">
-        <v>44960150</v>
+        <v>47.680399999999999</v>
       </c>
       <c r="AG9" s="2">
-        <v>-220095800</v>
+        <v>-218.76900000000001</v>
       </c>
       <c r="AH9" s="2">
-        <v>-358.04790000000003</v>
+        <v>-3.6457870000000003E-4</v>
       </c>
       <c r="AI9" s="2">
-        <v>4923326</v>
+        <v>4.9348130000000001</v>
       </c>
       <c r="AJ9" s="2">
-        <v>-4287149</v>
+        <v>-4.302346</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -1351,36 +1583,39 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>272923400</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.99665449870867207</v>
+        <v>0.58171418668477148</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99723137170434561</v>
+        <v>0.83111268561129936</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>5</v>
       </c>
       <c r="AE10" s="2">
-        <v>272923400</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="AF10" s="2">
-        <v>-60290230</v>
+        <v>-61.094479999999997</v>
       </c>
       <c r="AG10" s="2">
-        <v>-494113600</v>
+        <v>-496.096</v>
       </c>
       <c r="AH10" s="2">
-        <v>1986.4739999999999</v>
+        <v>2.0123710000000002E-3</v>
       </c>
       <c r="AI10" s="2">
-        <v>2898666</v>
+        <v>2.902854</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8129951</v>
+        <v>8.1392220000000002</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -1413,36 +1648,39 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>272926900</v>
+        <v>273.15339999999998</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-0.99665454152050248</v>
+        <v>0.58171417738839226</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99723140715544045</v>
+        <v>0.83111267054706994</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>6</v>
       </c>
       <c r="AE11" s="2">
-        <v>272926900</v>
+        <v>273.15339999999998</v>
       </c>
       <c r="AF11" s="2">
-        <v>60287980</v>
+        <v>61.09205</v>
       </c>
       <c r="AG11" s="2">
-        <v>-494116000</v>
+        <v>-496.09879999999998</v>
       </c>
       <c r="AH11" s="2">
-        <v>-1985.7170000000001</v>
+        <v>-2.011559E-3</v>
       </c>
       <c r="AI11" s="2">
-        <v>2898716</v>
+        <v>2.9029029999999998</v>
       </c>
       <c r="AJ11" s="2">
-        <v>-8130023</v>
+        <v>-8.1392930000000003</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -1505,36 +1743,39 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>-272918500</v>
+        <v>-273.14510000000001</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0033597673359671</v>
+        <v>0.58320929463829074</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0027770703468133</v>
+        <v>0.83353633480486056</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>7</v>
       </c>
       <c r="AE12" s="2">
-        <v>-272918500</v>
+        <v>-273.14510000000001</v>
       </c>
       <c r="AF12" s="2">
-        <v>60287110</v>
+        <v>61.091270000000002</v>
       </c>
       <c r="AG12" s="2">
-        <v>-494111500</v>
+        <v>-496.09379999999999</v>
       </c>
       <c r="AH12" s="2">
-        <v>1985.76</v>
+        <v>2.011601E-3</v>
       </c>
       <c r="AI12" s="2">
-        <v>2898743</v>
+        <v>2.9029310000000002</v>
       </c>
       <c r="AJ12" s="2">
-        <v>-8129794</v>
+        <v>-8.1390670000000007</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -1599,36 +1840,39 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>-138570400</v>
+        <v>-138.76140000000001</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0066308101997614</v>
+        <v>0.58284124941058657</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0054775710079529</v>
+        <v>0.83293954400741255</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>8</v>
       </c>
       <c r="AE13" s="2">
-        <v>-138570400</v>
+        <v>-138.76140000000001</v>
       </c>
       <c r="AF13" s="2">
-        <v>44955520</v>
+        <v>47.676110000000001</v>
       </c>
       <c r="AG13" s="2">
-        <v>-220096500</v>
+        <v>-218.76939999999999</v>
       </c>
       <c r="AH13" s="2">
-        <v>357.91050000000001</v>
+        <v>3.6444100000000002E-4</v>
       </c>
       <c r="AI13" s="2">
-        <v>4923330</v>
+        <v>4.9348190000000001</v>
       </c>
       <c r="AJ13" s="2">
-        <v>-4287100</v>
+        <v>-4.3022980000000004</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
@@ -1663,36 +1907,39 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>-138567100</v>
+        <v>-138.75810000000001</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.006630968775384</v>
+        <v>0.5828412403747667</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0054777018472516</v>
+        <v>0.83293952935705984</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>9</v>
       </c>
       <c r="AE14" s="2">
-        <v>-138567100</v>
+        <v>-138.75810000000001</v>
       </c>
       <c r="AF14" s="2">
-        <v>-44953180</v>
+        <v>-47.673650000000002</v>
       </c>
       <c r="AG14" s="2">
-        <v>-220099200</v>
+        <v>-218.7722</v>
       </c>
       <c r="AH14" s="2">
-        <v>-358.036</v>
+        <v>-3.6456439999999998E-4</v>
       </c>
       <c r="AI14" s="2">
-        <v>4923298</v>
+        <v>4.9347859999999999</v>
       </c>
       <c r="AJ14" s="2">
-        <v>4287046</v>
+        <v>4.3022419999999997</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -1722,36 +1969,39 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>-272915600</v>
+        <v>-273.14210000000003</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0033598031126387</v>
+        <v>0.58320928642008862</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0027770999006755</v>
+        <v>0.83353632147768386</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>10</v>
       </c>
       <c r="AE15" s="2">
-        <v>-272915600</v>
+        <v>-273.14210000000003</v>
       </c>
       <c r="AF15" s="2">
-        <v>-60289190</v>
+        <v>-61.09355</v>
       </c>
       <c r="AG15" s="2">
-        <v>-494110300</v>
+        <v>-496.0924</v>
       </c>
       <c r="AH15" s="2">
-        <v>-1986.4110000000001</v>
+        <v>-2.012308E-3</v>
       </c>
       <c r="AI15" s="2">
-        <v>2898691</v>
+        <v>2.9028779999999998</v>
       </c>
       <c r="AJ15" s="2">
-        <v>8129735</v>
+        <v>8.1390030000000007</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -1814,36 +2064,39 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>-685231600</v>
+        <v>-684.92280000000005</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0013364426695095</v>
+        <v>0.58433812305281485</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0011050618772317</v>
+        <v>0.83536743972177674</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>11</v>
       </c>
       <c r="AE16" s="2">
-        <v>-685231600</v>
+        <v>-684.92280000000005</v>
       </c>
       <c r="AF16" s="2">
-        <v>81417780</v>
+        <v>84.53134</v>
       </c>
       <c r="AG16" s="2">
-        <v>-12291030</v>
+        <v>-11.63542</v>
       </c>
       <c r="AH16" s="2">
-        <v>146.77760000000001</v>
+        <v>1.6226789999999999E-4</v>
       </c>
       <c r="AI16" s="2">
-        <v>18725430</v>
+        <v>18.720199999999998</v>
       </c>
       <c r="AJ16" s="2">
-        <v>155128.29999999999</v>
+        <v>0.1401384</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -1908,36 +2161,39 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>-685242500</v>
+        <v>-684.93380000000002</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-1.00133642139306</v>
+        <v>0.5843381532292089</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0011050442886573</v>
+        <v>0.83536748868574451</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
       </c>
       <c r="AD17">
         <v>12</v>
       </c>
       <c r="AE17" s="2">
-        <v>-685242500</v>
+        <v>-684.93380000000002</v>
       </c>
       <c r="AF17" s="2">
-        <v>-81418860</v>
+        <v>-84.532240000000002</v>
       </c>
       <c r="AG17" s="2">
-        <v>-12292020</v>
+        <v>-11.63654</v>
       </c>
       <c r="AH17" s="2">
-        <v>-145.2783</v>
+        <v>-1.6071560000000001E-4</v>
       </c>
       <c r="AI17" s="2">
-        <v>18725580</v>
+        <v>18.72035</v>
       </c>
       <c r="AJ17" s="2">
-        <v>-155004</v>
+        <v>-0.14001459999999999</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -1995,11 +2251,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="e">
+        <f>ABS(AE6)</f>
+        <v>138.7587</v>
+      </c>
+      <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>#DIV/0!</v>
+        <v>98.197016579494203</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -2020,11 +2277,12 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f t="shared" ref="U23:U33" si="3">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
+        <v>684.92539999999997</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>19.096274812481862</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -2046,11 +2304,12 @@
         <v>1</v>
       </c>
       <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>684.91399999999999</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096609303429432</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -2068,11 +2327,12 @@
         <v>1</v>
       </c>
       <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>138.76179999999999</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>98.194800474259239</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -2090,11 +2350,12 @@
         <v>1</v>
       </c>
       <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>49.391539683137715</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -2115,11 +2376,12 @@
         <v>1</v>
       </c>
       <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>273.15339999999998</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>49.390912448642652</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -2141,11 +2403,12 @@
         <v>1</v>
       </c>
       <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>273.14510000000001</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="4"/>
+        <v>49.392443666201821</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -2162,11 +2425,12 @@
         <v>1</v>
       </c>
       <c r="T29" s="5">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>138.76140000000001</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="4"/>
+        <v>98.19508641775785</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -2183,11 +2447,12 @@
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>138.75810000000001</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="4"/>
+        <v>98.19744551452537</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -2205,11 +2470,12 @@
         <v>1</v>
       </c>
       <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>273.14210000000003</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="4"/>
+        <v>49.392997141228179</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -2226,11 +2492,12 @@
         <v>1</v>
       </c>
       <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>684.92280000000005</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096351098910805</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -2247,11 +2514,12 @@
         <v>1</v>
       </c>
       <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>684.93380000000002</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096028352592711</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -2277,10 +2545,10 @@
         <v>20</v>
       </c>
       <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
-      </c>
-      <c r="V37" t="s">
-        <v>23</v>
       </c>
       <c r="W37" t="s">
         <v>34</v>
@@ -2303,14 +2571,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>138.7587</v>
       </c>
       <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="e">
-        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
-        <v>#DIV/0!</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>223.90625183036784</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>7.3631392433514691</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -2330,14 +2600,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <f t="shared" ref="U39:U50" si="5">ABS(AE7)</f>
+        <v>684.92539999999997</v>
       </c>
       <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="e">
-        <f t="shared" ref="W39:W50" si="4">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V39:V50" si="6">SQRT(AF7^2 + AG7^2)</f>
+        <v>85.342822157320299</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W50" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>20.062114032952071</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -2357,14 +2629,16 @@
         <v>1.4</v>
       </c>
       <c r="U40" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.91399999999999</v>
       </c>
       <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.343220801638367</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="7"/>
+        <v>20.062034007774823</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -2384,14 +2658,16 @@
         <v>1.4</v>
       </c>
       <c r="U41" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.76179999999999</v>
       </c>
       <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.90465806936666</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="7"/>
+        <v>7.363196869739026</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -2411,14 +2687,16 @@
         <v>1.4</v>
       </c>
       <c r="U42" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.14999999999998</v>
       </c>
       <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84375228912324</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7093390657614966</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -2438,14 +2716,16 @@
         <v>1.4</v>
       </c>
       <c r="U43" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.15339999999998</v>
       </c>
       <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84623429074912</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="7"/>
+        <v>2.709319712124175</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -2465,14 +2745,16 @@
         <v>1.4</v>
       </c>
       <c r="U44" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.14510000000001</v>
       </c>
       <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84117644373083</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7093595284292866</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -2492,14 +2774,16 @@
         <v>1.4</v>
       </c>
       <c r="U45" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.76140000000001</v>
       </c>
       <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.90413538184617</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3632166385121955</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -2519,14 +2803,16 @@
         <v>1.4</v>
       </c>
       <c r="U46" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.75810000000001</v>
       </c>
       <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.906347380244</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3631360427285983</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -2546,14 +2832,16 @@
         <v>1.4</v>
       </c>
       <c r="U47" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.14210000000003</v>
       </c>
       <c r="V47" s="5">
-        <v>0</v>
-      </c>
-      <c r="W47" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84006561035352</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="7"/>
+        <v>2.709368596862169</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -2573,14 +2861,16 @@
         <v>1.4</v>
       </c>
       <c r="U48" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.92280000000005</v>
       </c>
       <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.328368323623764</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="7"/>
+        <v>20.065685947120869</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -2600,39 +2890,22 @@
         <v>1.4</v>
       </c>
       <c r="U49" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.93380000000002</v>
       </c>
       <c r="V49" s="5">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.329412646456205</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="7"/>
+        <v>20.065410413862498</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q50">
-        <v>13241.4</v>
-      </c>
-      <c r="R50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="S50">
-        <v>0.2</v>
-      </c>
-      <c r="T50">
-        <v>1.4</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
       <c r="Q52" s="7" t="s">
@@ -2716,18 +2989,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>138.7587</v>
       </c>
       <c r="AA54" s="5">
-        <v>0</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>223.90625183036784</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <v>0.58183503144276227</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <v>0.83095818949570033</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -2762,18 +3037,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <v>0</v>
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
+        <v>684.92539999999997</v>
       </c>
       <c r="AA55" s="5">
-        <v>0</v>
+        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
+        <v>85.342822157320299</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB65" si="5">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58055335356605964</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC65" si="6">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.82918146254955771</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -2808,18 +3085,20 @@
         <v>655000000</v>
       </c>
       <c r="Z56" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.91399999999999</v>
       </c>
       <c r="AA56" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.343220801638367</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055338435590276</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918151193504519</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -2854,18 +3133,20 @@
         <v>655000000</v>
       </c>
       <c r="Z57" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.76179999999999</v>
       </c>
       <c r="AA57" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.90465806936666</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183502647781804</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83095818644085795</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -2900,18 +3181,20 @@
         <v>655000000</v>
       </c>
       <c r="Z58" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.14999999999998</v>
       </c>
       <c r="AA58" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84375228912324</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048676573863012</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738714284241643</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -2946,18 +3229,20 @@
         <v>655000000</v>
       </c>
       <c r="Z59" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.15339999999998</v>
       </c>
       <c r="AA59" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84623429074912</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048674428837921</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738709098392271</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -2992,18 +3277,20 @@
         <v>655000000</v>
       </c>
       <c r="Z60" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.14510000000001</v>
       </c>
       <c r="AA60" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84117644373083</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048679174097395</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.8273872027008724</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -3038,18 +3325,20 @@
         <v>655000000</v>
       </c>
       <c r="Z61" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.76140000000001</v>
       </c>
       <c r="AA61" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.90413538184617</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183502872300896</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83095819171213336</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -3084,18 +3373,20 @@
         <v>655000000</v>
       </c>
       <c r="Z62" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.75810000000001</v>
       </c>
       <c r="AA62" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.906347380244</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183503287279237</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83095819151272665</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -3130,18 +3421,20 @@
         <v>655000000</v>
       </c>
       <c r="Z63" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.14210000000003</v>
       </c>
       <c r="AA63" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84006561035352</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048680537374375</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738723242027601</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -3176,18 +3469,20 @@
         <v>655000000</v>
       </c>
       <c r="Z64" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.92280000000005</v>
       </c>
       <c r="AA64" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.328368323623764</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055337277093266</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918151082469471</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -3222,18 +3517,20 @@
         <v>655000000</v>
       </c>
       <c r="Z65" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.93380000000002</v>
       </c>
       <c r="AA65" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.329412646456205</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055334186456875</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="6"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918145953585642</v>
       </c>
     </row>
   </sheetData>
@@ -3247,47 +3544,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3298,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C2AAF-AA2E-43AA-8D17-51A2E4C44F0A}">
-  <dimension ref="B1:AC65"/>
+  <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3608,7 @@
     <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
@@ -3333,8 +3630,18 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3352,8 +3659,16 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -3362,7 +3677,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -3429,8 +3744,26 @@
       <c r="Z5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -3491,18 +3824,43 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <v>0</v>
+        <f>AE6</f>
+        <v>138.7619</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58246139422267351</v>
+        <v>0.58208171994093694</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0.83170830669422813</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>138.7619</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>218.7687</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>47.680340000000001</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>-3.6462069999999998E-4</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>4.3023470000000001</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>4.9348169999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3533,18 +3891,43 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
+        <f t="shared" ref="X7:X17" si="0">AE7</f>
+        <v>273.15320000000003</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.58171417793523816</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.83111267143320111</v>
+      </c>
+      <c r="AC7">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>273.15320000000003</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>496.09800000000001</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>61.092129999999997</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>-2.0116719999999999E-3</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>8.1392889999999998</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2.9029050000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P8">
         <v>3</v>
       </c>
@@ -3570,18 +3953,43 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>-273.14190000000002</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58320928587220844</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83353632058920546</v>
+      </c>
+      <c r="AC8">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>-273.14190000000002</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>496.0917</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>-61.093609999999998</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>-2.0123070000000001E-3</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>-8.1389990000000001</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>2.9028800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
@@ -3610,18 +4018,43 @@
         <v>1100000000</v>
       </c>
       <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>-138.75819999999999</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58284124064857945</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83293952980100983</v>
+      </c>
+      <c r="AC9">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>-138.75819999999999</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>218.77189999999999</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>-47.673580000000001</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>-3.6458820000000001E-4</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>-4.3022419999999997</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>4.9347890000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P10">
         <v>5</v>
       </c>
@@ -3647,18 +4080,43 @@
         <v>1100000000</v>
       </c>
       <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>684.91420000000005</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58058912977388522</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82929011607877046</v>
+      </c>
+      <c r="AC10">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>684.91420000000005</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>11.63297</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>84.545929999999998</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>-1.6234760000000001E-4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>-0.1400235</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>18.719989999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -3687,18 +4145,43 @@
         <v>1100000000</v>
       </c>
       <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>-684.93399999999997</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58433815377787068</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8353674895759986</v>
+      </c>
+      <c r="AC11">
         <v>0</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>-684.93399999999997</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>11.63649</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>-84.531540000000007</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>-1.6093720000000001E-4</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0.14001549999999999</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>18.720359999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -3757,18 +4240,43 @@
         <v>1100000000</v>
       </c>
       <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>684.92520000000002</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58058909974013506</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8292900674385304</v>
+      </c>
+      <c r="AC12">
         <v>0</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>684.92520000000002</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>11.6341</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>-84.546800000000005</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1.6081339999999999E-4</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0.13989960000000001</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>18.720140000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -3829,18 +4337,43 @@
         <v>1100000000</v>
       </c>
       <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>138.7586</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5820817289680873</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83170832132490524</v>
+      </c>
+      <c r="AC13">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>138.7586</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>218.7715</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>-47.677860000000003</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>3.6472749999999997E-4</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>-4.3022910000000003</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>4.9347830000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3871,18 +4404,43 @@
         <v>1100000000</v>
       </c>
       <c r="X14" s="5">
+        <f t="shared" si="0"/>
+        <v>-138.76140000000001</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58284124941058657</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83293954400741255</v>
+      </c>
+      <c r="AC14">
         <v>0</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>-138.76140000000001</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>218.7697</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>47.676169999999999</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3.6459390000000001E-4</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>4.3022970000000003</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>4.9348159999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>10</v>
       </c>
@@ -3908,18 +4466,43 @@
         <v>1100000000</v>
       </c>
       <c r="X15" s="5">
+        <f t="shared" si="0"/>
+        <v>-684.92259999999999</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58433812250415285</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83536743883152287</v>
+      </c>
+      <c r="AC15">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>-684.92259999999999</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>11.635479999999999</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>84.532030000000006</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>1.6231899999999999E-4</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>-0.14013729999999999</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>18.720199999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -3978,18 +4561,43 @@
         <v>1100000000</v>
       </c>
       <c r="X16" s="5">
+        <f t="shared" si="0"/>
+        <v>273.15019999999998</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58171418613792558</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83111268472516819</v>
+      </c>
+      <c r="AC16">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>273.15019999999998</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>496.0967</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>-61.094410000000003</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>2.0123799999999998E-3</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>-8.1392260000000007</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>2.9028520000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -4050,38 +4658,63 @@
         <v>1100000000</v>
       </c>
       <c r="X17" s="5">
+        <f t="shared" si="0"/>
+        <v>-273.14530000000002</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58320929518617071</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83353633569333874</v>
+      </c>
+      <c r="AC17">
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>-273.14530000000002</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>496.09449999999998</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>61.091209999999997</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>2.0116000000000001E-3</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>8.1390709999999995</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>2.9029289999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="Q20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>42</v>
       </c>
@@ -4101,7 +4734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="P22">
         <v>1</v>
@@ -4116,14 +4749,15 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="e">
+        <f>ABS(AE6)</f>
+        <v>138.7619</v>
+      </c>
+      <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+        <v>98.194728988642154</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
@@ -4141,14 +4775,15 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
+        <v>273.15320000000003</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>49.390949344357175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4167,15 +4802,16 @@
         <v>1</v>
       </c>
       <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>273.14190000000002</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>49.393034039995555</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>4</v>
       </c>
@@ -4189,14 +4825,15 @@
         <v>1</v>
       </c>
       <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>138.75819999999999</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>98.197374025095939</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
       <c r="P26">
         <v>5</v>
@@ -4211,14 +4848,15 @@
         <v>1</v>
       </c>
       <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>684.91420000000005</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096603435071231</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
@@ -4236,14 +4874,15 @@
         <v>1</v>
       </c>
       <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>684.93399999999997</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>19.09602248457379</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4262,14 +4901,15 @@
         <v>1</v>
       </c>
       <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>684.92520000000002</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096280680648142</v>
+      </c>
+    </row>
+    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>8</v>
       </c>
@@ -4283,14 +4923,15 @@
         <v>1</v>
       </c>
       <c r="T29" s="5">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>138.7586</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="4"/>
+        <v>98.19708806840849</v>
+      </c>
+    </row>
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>9</v>
       </c>
@@ -4304,15 +4945,16 @@
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>138.76140000000001</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="4"/>
+        <v>98.19508641775785</v>
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>10</v>
       </c>
@@ -4326,14 +4968,15 @@
         <v>1</v>
       </c>
       <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>684.92259999999999</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="4"/>
+        <v>19.096356967121636</v>
+      </c>
+    </row>
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>11</v>
       </c>
@@ -4347,11 +4990,12 @@
         <v>1</v>
       </c>
       <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>273.15019999999998</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="4"/>
+        <v>49.391502786558696</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -4368,11 +5012,12 @@
         <v>1</v>
       </c>
       <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>273.14530000000002</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="4"/>
+        <v>49.392406768299004</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -4398,10 +5043,10 @@
         <v>20</v>
       </c>
       <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
-      </c>
-      <c r="V37" t="s">
-        <v>23</v>
       </c>
       <c r="W37" t="s">
         <v>34</v>
@@ -4424,14 +5069,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>138.7619</v>
       </c>
       <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="e">
-        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
-        <v>#DIV/0!</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>223.90435217343497</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>7.3632082340783818</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -4451,14 +5098,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
+        <v>273.15320000000003</v>
       </c>
       <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="e">
-        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
+        <v>499.8454500662549</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>2.7093255867902131</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -4478,14 +5127,16 @@
         <v>1.4</v>
       </c>
       <c r="U40" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.14190000000002</v>
       </c>
       <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.839378192357</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7093737532635176</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -4505,14 +5156,16 @@
         <v>1.4</v>
       </c>
       <c r="U41" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.75819999999999</v>
       </c>
       <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.90603935496335</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3631474864327373</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -4532,14 +5185,16 @@
         <v>1.4</v>
       </c>
       <c r="U42" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.91420000000005</v>
       </c>
       <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.342488073560403</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="7"/>
+        <v>20.062214518776205</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -4559,14 +5214,16 @@
         <v>1.4</v>
       </c>
       <c r="U43" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.93399999999997</v>
       </c>
       <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.328712367477465</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="7"/>
+        <v>20.065582972172223</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -4586,14 +5243,16 @@
         <v>1.4</v>
       </c>
       <c r="U44" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.92520000000002</v>
       </c>
       <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.343503988587202</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="7"/>
+        <v>20.061946084350119</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -4613,14 +5272,16 @@
         <v>1.4</v>
       </c>
       <c r="U45" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.7586</v>
       </c>
       <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.90655985573446</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3631277996663176</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -4640,14 +5301,16 @@
         <v>1.4</v>
       </c>
       <c r="U46" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138.76140000000001</v>
       </c>
       <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>223.90444127787839</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="7"/>
+        <v>7.363205212768376</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -4667,14 +5330,16 @@
         <v>1.4</v>
       </c>
       <c r="U47" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>684.92259999999999</v>
       </c>
       <c r="V47" s="5">
-        <v>0</v>
-      </c>
-      <c r="W47" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>85.329060060165318</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="7"/>
+        <v>20.06551549617464</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -4694,14 +5359,16 @@
         <v>1.4</v>
       </c>
       <c r="U48" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.15019999999998</v>
       </c>
       <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84443848475308</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7093339185241305</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -4721,39 +5388,22 @@
         <v>1.4</v>
       </c>
       <c r="U49" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>273.14530000000002</v>
       </c>
       <c r="V49" s="5">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>499.84186386247609</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7093543720604965</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q50">
-        <v>13241.4</v>
-      </c>
-      <c r="R50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="S50">
-        <v>0.2</v>
-      </c>
-      <c r="T50">
-        <v>1.4</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
       <c r="Q52" s="7" t="s">
@@ -4837,18 +5487,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>138.7619</v>
       </c>
       <c r="AA54" s="5">
-        <v>0</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>223.90435217343497</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <v>0.58183502687829836</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <v>0.83095818804640031</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -4883,18 +5535,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <v>0</v>
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
+        <v>273.15320000000003</v>
       </c>
       <c r="AA55" s="5">
-        <v>0</v>
+        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
+        <v>499.8454500662549</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58048674868098504</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.82738710351935185</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -4929,18 +5583,20 @@
         <v>655000000</v>
       </c>
       <c r="Z56" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.14190000000002</v>
       </c>
       <c r="AA56" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.839378192357</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048680929142193</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738724351689941</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -4975,18 +5631,20 @@
         <v>655000000</v>
       </c>
       <c r="Z57" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.75819999999999</v>
       </c>
       <c r="AA57" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.90603935496335</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183503327796826</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.8309581931325436</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -5021,18 +5679,20 @@
         <v>655000000</v>
       </c>
       <c r="Z58" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.91420000000005</v>
       </c>
       <c r="AA58" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.342488073560403</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055338442365345</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918151291555264</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -5067,18 +5727,20 @@
         <v>655000000</v>
       </c>
       <c r="Z59" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.93399999999997</v>
       </c>
       <c r="AA59" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.328712367477465</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055334190504371</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918146043349639</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -5113,18 +5775,20 @@
         <v>655000000</v>
       </c>
       <c r="Z60" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.92520000000002</v>
       </c>
       <c r="AA60" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.343503988587202</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055335354094106</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.8291814616985711</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -5159,18 +5823,20 @@
         <v>655000000</v>
       </c>
       <c r="Z61" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.7586</v>
       </c>
       <c r="AA61" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.90655985573446</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183503103758505</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83095818787588072</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -5205,18 +5871,20 @@
         <v>655000000</v>
       </c>
       <c r="Z62" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>138.76140000000001</v>
       </c>
       <c r="AA62" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>223.90444127787839</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58183502804910736</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83095818966378276</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -5251,18 +5919,20 @@
         <v>655000000</v>
       </c>
       <c r="Z63" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>684.92259999999999</v>
       </c>
       <c r="AA63" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>85.329060060165318</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055337273761554</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82918150994879802</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -5297,18 +5967,20 @@
         <v>655000000</v>
       </c>
       <c r="Z64" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.15019999999998</v>
       </c>
       <c r="AA64" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84443848475308</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048676182691938</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738713176387169</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -5343,22 +6015,25 @@
         <v>655000000</v>
       </c>
       <c r="Z65" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>273.14530000000002</v>
       </c>
       <c r="AA65" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>499.84186386247609</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58048678782328023</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82738719160420193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AD1:AK2"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="Q52:R52"/>
     <mergeCell ref="B1:L2"/>
@@ -5403,7 +6078,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5417,10 +6092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E329C4-7E96-4707-A44A-B8116FA21670}">
-  <dimension ref="B1:AC65"/>
+  <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="Q4" sqref="Q4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,7 +6105,7 @@
     <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
@@ -5452,8 +6127,18 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5471,8 +6156,16 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +6174,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -5548,8 +6241,26 @@
       <c r="Z5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5610,18 +6321,43 @@
         <v>1100000000</v>
       </c>
       <c r="X6" s="5">
-        <v>0</v>
+        <f>AE6</f>
+        <v>250.38579999999999</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58246139422267351</v>
+        <v>0.58177643167580162</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0.83121355149997678</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>250.38579999999999</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>-48.847000000000001</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>48.846879999999999</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>-3.1663769999999998E-8</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>2.110808</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2.1107909999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5652,18 +6388,43 @@
         <v>1100000000</v>
       </c>
       <c r="X7" s="5">
+        <f t="shared" ref="X7:X17" si="0">AE7</f>
+        <v>661.85220000000004</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.58065209940614637</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.82939209824114224</v>
+      </c>
+      <c r="AC7">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y17" si="0">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z17" si="1">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>661.85220000000004</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>7.9061859999999999</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>138.74539999999999</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>-2.1803569999999999E-4</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>14.659599999999999</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>-1.683254</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P8">
         <v>3</v>
       </c>
@@ -5689,18 +6450,43 @@
         <v>1100000000</v>
       </c>
       <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>661.8424</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065212616562079</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939214158000829</v>
+      </c>
+      <c r="AC8">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>661.8424</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>-7.9059189999999999</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>138.7439</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2.1912839999999999E-4</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>14.65944</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>1.6834</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
@@ -5729,18 +6515,43 @@
         <v>1100000000</v>
       </c>
       <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58177643194924622</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83121355194309143</v>
+      </c>
+      <c r="AC9">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>250.38570000000001</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>48.846589999999999</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>48.845619999999997</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1.281211E-8</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>2.1107819999999999</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>-2.110814</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P10">
         <v>5</v>
       </c>
@@ -5766,18 +6577,43 @@
         <v>1100000000</v>
       </c>
       <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>661.84339999999997</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5806521234350619</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939213715767512</v>
+      </c>
+      <c r="AC10">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>661.84339999999997</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>-138.7441</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>-7.9068250000000004</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>2.1918379999999999E-4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>-1.683395</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>14.659470000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -5806,18 +6642,43 @@
         <v>1100000000</v>
       </c>
       <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>661.85619999999994</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065208848391237</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939208055180957</v>
+      </c>
+      <c r="AC11">
         <v>0</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>661.85619999999994</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>138.7449</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>-7.9104749999999999</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>-2.178231E-4</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>-1.683298</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>-14.65968</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -5876,18 +6737,43 @@
         <v>1100000000</v>
       </c>
       <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>661.85140000000001</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065210159059344</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939210177900868</v>
+      </c>
+      <c r="AC12">
         <v>0</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>661.85140000000001</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>-138.74510000000001</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>7.9055499999999999</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>-2.1798790000000001E-4</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1.68326</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>14.65958</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5948,18 +6834,43 @@
         <v>1100000000</v>
       </c>
       <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58177643194924622</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83121355194309143</v>
+      </c>
+      <c r="AC13">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>250.38570000000001</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>-48.84554</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>-48.846679999999999</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1.2443089999999999E-7</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>-2.1107969999999998</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>2.1107990000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -5990,18 +6901,43 @@
         <v>1100000000</v>
       </c>
       <c r="X14" s="5">
+        <f t="shared" si="0"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58177643194924622</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83121355194309143</v>
+      </c>
+      <c r="AC14">
         <v>0</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>250.38570000000001</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>48.845320000000001</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>-48.845179999999999</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>-2.9450370000000001E-8</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>-2.1108039999999999</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>-2.1107870000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>10</v>
       </c>
@@ -6027,18 +6963,43 @@
         <v>1100000000</v>
       </c>
       <c r="X15" s="5">
+        <f t="shared" si="0"/>
+        <v>661.84630000000004</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065211551644214</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939212433290832</v>
+      </c>
+      <c r="AC15">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>661.84630000000004</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>138.74350000000001</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>7.9103149999999998</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>2.191537E-4</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1.6834439999999999</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>-14.65953</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -6097,18 +7058,43 @@
         <v>1100000000</v>
       </c>
       <c r="X16" s="5">
+        <f t="shared" si="0"/>
+        <v>661.84720000000004</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065211305893949</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939212035280829</v>
+      </c>
+      <c r="AC16">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>661.84720000000004</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>7.9108539999999996</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>-138.74379999999999</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>2.1919880000000001E-4</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>-14.659549999999999</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>-1.683438</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -6169,38 +7155,63 @@
         <v>1100000000</v>
       </c>
       <c r="X17" s="5">
+        <f t="shared" si="0"/>
+        <v>661.85519999999997</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58065209121447103</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82939208497414274</v>
+      </c>
+      <c r="AC17">
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58246139422267351</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8323237196262534</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>661.85519999999997</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>-7.9096789999999997</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>-138.74469999999999</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>-2.1800960000000001E-4</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>-14.659660000000001</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>1.6833020000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="Q20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>42</v>
       </c>
@@ -6220,7 +7231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="P22">
         <v>1</v>
@@ -6235,14 +7246,15 @@
         <v>1</v>
       </c>
       <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="e">
+        <f>ABS(AE6)</f>
+        <v>250.38579999999999</v>
+      </c>
+      <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+        <v>53.972961982864305</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
@@ -6260,14 +7272,15 @@
         <v>1</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f t="shared" ref="U23:U33" si="2">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
+        <v>661.85220000000004</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>19.796862297124743</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -6286,15 +7299,16 @@
         <v>1</v>
       </c>
       <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>661.8424</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>19.797170239393946</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>4</v>
       </c>
@@ -6308,14 +7322,15 @@
         <v>1</v>
       </c>
       <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>53.972983938176434</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
       <c r="P26">
         <v>5</v>
@@ -6330,14 +7345,15 @@
         <v>1</v>
       </c>
       <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>661.84339999999997</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>19.797138816295615</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
@@ -6355,14 +7371,15 @@
         <v>1</v>
       </c>
       <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>661.85619999999994</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>19.796736609023327</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -6381,14 +7398,15 @@
         <v>1</v>
       </c>
       <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>661.85140000000001</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="4"/>
+        <v>19.796887434927335</v>
+      </c>
+    </row>
+    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>8</v>
       </c>
@@ -6402,14 +7420,15 @@
         <v>1</v>
       </c>
       <c r="T29" s="5">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="4"/>
+        <v>53.972983938176434</v>
+      </c>
+    </row>
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>9</v>
       </c>
@@ -6423,15 +7442,16 @@
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>250.38570000000001</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="4"/>
+        <v>53.972983938176434</v>
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>10</v>
       </c>
@@ -6445,14 +7465,15 @@
         <v>1</v>
       </c>
       <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>661.84630000000004</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="4"/>
+        <v>19.797047689847421</v>
+      </c>
+    </row>
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>11</v>
       </c>
@@ -6466,11 +7487,12 @@
         <v>1</v>
       </c>
       <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>661.84720000000004</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="4"/>
+        <v>19.797019409387946</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -6487,11 +7509,12 @@
         <v>1</v>
       </c>
       <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>661.85519999999997</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="4"/>
+        <v>19.796768030906254</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -6517,10 +7540,10 @@
         <v>20</v>
       </c>
       <c r="U37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
-      </c>
-      <c r="V37" t="s">
-        <v>23</v>
       </c>
       <c r="W37" t="s">
         <v>34</v>
@@ -6543,14 +7566,16 @@
         <v>1.4</v>
       </c>
       <c r="U38" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>250.38579999999999</v>
       </c>
       <c r="V38" s="5">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="e">
-        <f>(((Q38-(1-R38)*V38)*S38)/(T38*U38))-1</f>
-        <v>#DIV/0!</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>69.080005028476947</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>25.885035805410958</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -6570,14 +7595,16 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
+        <v>661.85220000000004</v>
       </c>
       <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="e">
-        <f t="shared" ref="W39:W50" si="3">(((Q39-(1-R39)*V39)*S39)/(T39*U39))-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
+        <v>138.970478153551</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>11.957220792578122</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -6597,14 +7624,16 @@
         <v>1.4</v>
       </c>
       <c r="U40" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.8424</v>
       </c>
       <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.96896539315733</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957371531056801</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -6624,14 +7653,16 @@
         <v>1.4</v>
       </c>
       <c r="U41" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>69.078824163505416</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="7"/>
+        <v>25.885495589437145</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -6651,14 +7682,16 @@
         <v>1.4</v>
       </c>
       <c r="U42" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.84339999999997</v>
       </c>
       <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.9692166142942</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957347118497955</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -6678,14 +7711,16 @@
         <v>1.4</v>
       </c>
       <c r="U43" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.85619999999994</v>
       </c>
       <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.97022303621603</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="7"/>
+        <v>11.95724062342599</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -6705,14 +7740,16 @@
         <v>1.4</v>
       </c>
       <c r="U44" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.85140000000001</v>
       </c>
       <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.97014245805644</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957252883093537</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -6732,14 +7769,16 @@
         <v>1.4</v>
       </c>
       <c r="U45" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>69.078831235871391</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="7"/>
+        <v>25.885492836870824</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -6759,14 +7798,16 @@
         <v>1.4</v>
       </c>
       <c r="U46" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>69.077615007575346</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="7"/>
+        <v>25.885966201464225</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -6786,14 +7827,16 @@
         <v>1.4</v>
       </c>
       <c r="U47" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.84630000000004</v>
       </c>
       <c r="V47" s="5">
-        <v>0</v>
-      </c>
-      <c r="W47" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.96881619863223</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957381585092676</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -6813,14 +7856,16 @@
         <v>1.4</v>
       </c>
       <c r="U48" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.84720000000004</v>
       </c>
       <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.96914639390036</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957349907904499</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -6840,39 +7885,22 @@
         <v>1.4</v>
       </c>
       <c r="U49" s="5">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>661.85519999999997</v>
       </c>
       <c r="V49" s="5">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="6"/>
+        <v>138.96997805271843</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="7"/>
+        <v>11.957264454031314</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q50">
-        <v>13241.4</v>
-      </c>
-      <c r="R50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="S50">
-        <v>0.2</v>
-      </c>
-      <c r="T50">
-        <v>1.4</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
       <c r="Q52" s="7" t="s">
@@ -6956,18 +7984,20 @@
         <v>655000000</v>
       </c>
       <c r="Z54" s="5">
-        <v>0</v>
+        <f>ABS(AE6)</f>
+        <v>250.38579999999999</v>
       </c>
       <c r="AA54" s="5">
-        <v>0</v>
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>69.080005028476947</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <v>0.58175295821788131</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <v>0.83114216779339367</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -7002,18 +8032,20 @@
         <v>655000000</v>
       </c>
       <c r="Z55" s="5">
-        <v>0</v>
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
+        <v>661.85220000000004</v>
       </c>
       <c r="AA55" s="5">
-        <v>0</v>
+        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
+        <v>138.970478153551</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB65" si="4">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.58246139422267351</v>
+        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.58055730960109408</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC65" si="5">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.8323237196262534</v>
+        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.82910411598549572</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -7048,18 +8080,20 @@
         <v>655000000</v>
       </c>
       <c r="Z56" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.8424</v>
       </c>
       <c r="AA56" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.96896539315733</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055733841922263</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82910416557203392</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -7094,18 +8128,20 @@
         <v>655000000</v>
       </c>
       <c r="Z57" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="AA57" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>69.078824163505416</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58175295929380688</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83114217067678231</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -7140,18 +8176,20 @@
         <v>655000000</v>
       </c>
       <c r="Z58" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.84339999999997</v>
       </c>
       <c r="AA58" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.9692166142942</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055733534648057</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82910416011085641</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -7186,18 +8224,20 @@
         <v>655000000</v>
       </c>
       <c r="Z59" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.85619999999994</v>
       </c>
       <c r="AA59" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.97022303621603</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055729902881725</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82910409936160101</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -7232,18 +8272,20 @@
         <v>655000000</v>
       </c>
       <c r="Z60" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.85140000000001</v>
       </c>
       <c r="AA60" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.97014245805644</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055731224305274</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.8291041209126544</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -7278,18 +8320,20 @@
         <v>655000000</v>
       </c>
       <c r="Z61" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="AA61" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>69.078831235871391</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.5817529592890005</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83114217066216733</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -7324,18 +8368,20 @@
         <v>655000000</v>
       </c>
       <c r="Z62" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>250.38570000000001</v>
       </c>
       <c r="AA62" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>69.077615007575346</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58175296011551225</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.83114217317553063</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -7370,18 +8416,20 @@
         <v>655000000</v>
       </c>
       <c r="Z63" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.84630000000004</v>
       </c>
       <c r="AA63" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.96881619863223</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055732797546633</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82910414895126228</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -7416,18 +8464,20 @@
         <v>655000000</v>
       </c>
       <c r="Z64" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.84720000000004</v>
       </c>
       <c r="AA64" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.96914639390036</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055732506800783</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.82910414360488227</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -7462,22 +8512,25 @@
         <v>655000000</v>
       </c>
       <c r="Z65" s="5">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>661.85519999999997</v>
       </c>
       <c r="AA65" s="5">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>138.96997805271843</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58246139422267351</v>
+        <f t="shared" si="10"/>
+        <v>0.58055730209305323</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8323237196262534</v>
+        <f t="shared" si="11"/>
+        <v>0.8291041047969403</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AD1:AK2"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="Q52:R52"/>
     <mergeCell ref="B1:L2"/>
@@ -7522,7 +8575,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z17 U22:U33 W38:W50 AB54:AC65">
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Calculos/MoS.xlsx
+++ b/Calculos/MoS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC440A21-4486-4F06-B5FE-9E8482CA1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFC03D-7547-4BD5-A369-2E334DC53A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,231 +269,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1099,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1053,8 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
-        <v>182000000</v>
+      <c r="D6" s="5">
+        <v>17600000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -1295,11 +1079,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>0.49299736076595546</v>
+        <v>14.438949980647948</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>0.54391063481972535</v>
+        <v>14.965439519158526</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1329,11 +1113,11 @@
         <f>AE6</f>
         <v>138.7587</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="9">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
         <v>0.58208172869453723</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="9">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
         <v>0.83170832088155122</v>
       </c>
@@ -1396,11 +1180,11 @@
         <f t="shared" ref="X7:X17" si="0">AE7</f>
         <v>684.92539999999997</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="9">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
         <v>0.58058909919406698</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="9">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
         <v>0.82929006655416249</v>
       </c>
@@ -1458,11 +1242,11 @@
         <f t="shared" si="0"/>
         <v>684.91399999999999</v>
       </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="1"/>
+      <c r="Y8" s="9">
+        <f>((Q8*U8)/(R8+S8*X8*T8))-1</f>
         <v>0.58058913031995374</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="9">
         <f t="shared" si="2"/>
         <v>0.82929011696313859</v>
       </c>
@@ -1523,11 +1307,11 @@
         <f t="shared" si="0"/>
         <v>138.76179999999999</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="9">
         <f t="shared" si="1"/>
         <v>0.58208172021448679</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="9">
         <f t="shared" si="2"/>
         <v>0.8317083071375817</v>
       </c>
@@ -1585,11 +1369,11 @@
         <f t="shared" si="0"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="9">
         <f t="shared" si="1"/>
         <v>0.58171418668477148</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="9">
         <f t="shared" si="2"/>
         <v>0.83111268561129936</v>
       </c>
@@ -1650,11 +1434,11 @@
         <f t="shared" si="0"/>
         <v>273.15339999999998</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="9">
         <f t="shared" si="1"/>
         <v>0.58171417738839226</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="9">
         <f t="shared" si="2"/>
         <v>0.83111267054706994</v>
       </c>
@@ -1745,11 +1529,11 @@
         <f t="shared" si="0"/>
         <v>-273.14510000000001</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="9">
         <f t="shared" si="1"/>
         <v>0.58320929463829074</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="9">
         <f t="shared" si="2"/>
         <v>0.83353633480486056</v>
       </c>
@@ -1782,7 +1566,7 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>180000000</v>
       </c>
       <c r="E13">
@@ -1842,11 +1626,11 @@
         <f t="shared" si="0"/>
         <v>-138.76140000000001</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="9">
         <f t="shared" si="1"/>
         <v>0.58284124941058657</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="9">
         <f t="shared" si="2"/>
         <v>0.83293954400741255</v>
       </c>
@@ -1909,11 +1693,11 @@
         <f t="shared" si="0"/>
         <v>-138.75810000000001</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="9">
         <f t="shared" si="1"/>
         <v>0.5828412403747667</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="9">
         <f t="shared" si="2"/>
         <v>0.83293952935705984</v>
       </c>
@@ -1971,11 +1755,11 @@
         <f t="shared" si="0"/>
         <v>-273.14210000000003</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="9">
         <f t="shared" si="1"/>
         <v>0.58320928642008862</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="9">
         <f t="shared" si="2"/>
         <v>0.83353632147768386</v>
       </c>
@@ -2066,11 +1850,11 @@
         <f t="shared" si="0"/>
         <v>-684.92280000000005</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="9">
         <f t="shared" si="1"/>
         <v>0.58433812305281485</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="9">
         <f t="shared" si="2"/>
         <v>0.83536743972177674</v>
       </c>
@@ -2103,7 +1887,7 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>182000000</v>
       </c>
       <c r="E17">
@@ -2163,11 +1947,11 @@
         <f t="shared" si="0"/>
         <v>-684.93380000000002</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="9">
         <f t="shared" si="1"/>
         <v>0.5843381532292089</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="9">
         <f t="shared" si="2"/>
         <v>0.83536748868574451</v>
       </c>
@@ -2600,15 +2384,15 @@
         <v>1.4</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:U50" si="5">ABS(AE7)</f>
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
         <v>684.92539999999997</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39:V50" si="6">SQRT(AF7^2 + AG7^2)</f>
+        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
         <v>85.342822157320299</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" ref="W39:W50" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
         <v>20.062114032952071</v>
       </c>
     </row>
@@ -3544,47 +3328,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
